--- a/biology/Botanique/Bergamote_Crassane_d'Hiver/Bergamote_Crassane_d'Hiver.xlsx
+++ b/biology/Botanique/Bergamote_Crassane_d'Hiver/Bergamote_Crassane_d'Hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bergamote_Crassane_d%27Hiver</t>
+          <t>Bergamote_Crassane_d'Hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bergamote Crassane d'Hiver est un très ancien cultivar de poire. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bergamote_Crassane_d%27Hiver</t>
+          <t>Bergamote_Crassane_d'Hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bergamote crassane d'hiver
 Bergamote crassane de Bruneau
 Beurré de Bruneau
-Bergamote Crésane[1]
-Attention, la bergamote est aussi le fruit du bergamotier, arbre de la famille des Rutacées (à ne pas confondre avec la poire Bergamote ou ses variétés[2]).
+Bergamote Crésane
+Attention, la bergamote est aussi le fruit du bergamotier, arbre de la famille des Rutacées (à ne pas confondre avec la poire Bergamote ou ses variétés).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bergamote_Crassane_d%27Hiver</t>
+          <t>Bergamote_Crassane_d'Hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été décrite, en 1690, déjà, dans le centre de la France, sous le nom de Bergamote Crésane[1].
-Pour d'autres, ce fruit est obtenu en 1855 dans la propriété de la Bourdinière sur la commune de Château-Thébaud en Loire-inférieure (Loire-Atlantique)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été décrite, en 1690, déjà, dans le centre de la France, sous le nom de Bergamote Crésane.
+Pour d'autres, ce fruit est obtenu en 1855 dans la propriété de la Bourdinière sur la commune de Château-Thébaud en Loire-inférieure (Loire-Atlantique).
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bergamote_Crassane_d%27Hiver</t>
+          <t>Bergamote_Crassane_d'Hiver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre délicat, fertile, mieux sur franc en pyramide ou espalier[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre délicat, fertile, mieux sur franc en pyramide ou espalier.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bergamote_Crassane_d%27Hiver</t>
+          <t>Bergamote_Crassane_d'Hiver</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,21 +627,128 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est de 8 cm de hauteur sur 8 cm de diamètre[1]. 
-Son pédoncule est assez court, ligneux et mince.  Il mesure environ 2 cm[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est de 8 cm de hauteur sur 8 cm de diamètre. 
+Son pédoncule est assez court, ligneux et mince.  Il mesure environ 2 cm.
 Le calice est ouvert, à divisions assez longues, noires ou de couleur très foncée comme le pédoncule. Il est placé dans une cavité assez profonde.
-La peau est rude, vert clair, semée de petits points roux et ombrée de même couleur ; elle passe au jaune or à maturité[1].
+La peau est rude, vert clair, semée de petits points roux et ombrée de même couleur ; elle passe au jaune or à maturité.
 Sa chair est blanche à jaunâtre.
-Époque de floraison
-Elle est moyenne, mais considérée comme une des plus résistantes aux gelées[1].
-Conservation
-De décembre à mars.
-Maladies, parasites et ravageurs
-Se chancre rapidement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bergamote_Crassane_d'Hiver</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Crassane_d%27Hiver</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Époque de floraison</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est moyenne, mais considérée comme une des plus résistantes aux gelées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bergamote_Crassane_d'Hiver</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Crassane_d%27Hiver</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De décembre à mars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bergamote_Crassane_d'Hiver</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Crassane_d%27Hiver</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Maladies, parasites et ravageurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se chancre rapidement.
 Il vaut mieux greffer sur franc ou sur arbres bien vigoureux.
-La poire Crassane est un fruit de table qui a l’avantage de se conserver jusqu’en février ou mars de l’année suivant la récolte[1].
+La poire Crassane est un fruit de table qui a l’avantage de se conserver jusqu’en février ou mars de l’année suivant la récolte.
 </t>
         </is>
       </c>
